--- a/algorithm/fair_comparison/fc_comparison_summary.xlsx
+++ b/algorithm/fair_comparison/fc_comparison_summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Note_Database\Subject\MS Monographic Study\MS Phase6\MCU\SMRBS-ESP32\algorithm\fair_comparison\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5852829-F429-406E-B146-3569F4B8CB51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29661C6E-23F6-4834-949E-3206C3D30334}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,11 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="10">
-  <si>
-    <t>fc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="13">
   <si>
     <t>max</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -68,7 +64,23 @@
     <t>pe16</t>
   </si>
   <si>
-    <t>std</t>
+    <t>item</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fc5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fc6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mean of 5-6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>std of 5-6</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -240,19 +252,10 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="12">
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -317,15 +320,6 @@
         <color indexed="64"/>
       </left>
       <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
       <top style="medium">
         <color indexed="64"/>
       </top>
@@ -412,7 +406,7 @@
     <xf numFmtId="0" fontId="13" fillId="8" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="6">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="5">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
@@ -452,54 +446,60 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="20">
     <cellStyle name="Accent" xfId="8" xr:uid="{CFC18EBB-F7DA-4AAA-9AEF-1223110A766F}"/>
@@ -802,156 +802,160 @@
   <dimension ref="A1:M21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
+  <cols>
+    <col min="1" max="1" width="14.5703125" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="4"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="9"/>
     </row>
     <row r="2" spans="1:13" ht="16.5" thickBot="1">
       <c r="A2" s="11"/>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="13" t="s">
-        <v>8</v>
-      </c>
       <c r="H2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="M2" s="6" t="s">
-        <v>8</v>
-      </c>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="14">
-        <v>5</v>
-      </c>
-      <c r="B3" s="15">
+      <c r="A3" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="13">
         <v>30.7434554855346</v>
       </c>
-      <c r="C3" s="16">
+      <c r="C3" s="14">
         <v>30.7434554855346</v>
       </c>
-      <c r="D3" s="16">
+      <c r="D3" s="14">
         <v>30.7434554855346</v>
       </c>
-      <c r="E3" s="16">
+      <c r="E3" s="14">
         <v>30.7434554855346</v>
       </c>
-      <c r="F3" s="16">
+      <c r="F3" s="14">
         <v>30.7434554855346</v>
       </c>
-      <c r="G3" s="5">
+      <c r="G3" s="15">
         <v>30.7434554855346</v>
       </c>
-      <c r="H3" s="7">
+      <c r="H3" s="16">
         <v>1.2057617462834016</v>
       </c>
-      <c r="I3" s="7">
+      <c r="I3" s="16">
         <v>1</v>
       </c>
-      <c r="J3" s="7">
+      <c r="J3" s="16">
         <v>1.1034097514408803</v>
       </c>
-      <c r="K3" s="7">
+      <c r="K3" s="16">
         <v>1.1362593475238467</v>
       </c>
-      <c r="L3" s="7">
+      <c r="L3" s="16">
         <v>1.7795214607916048</v>
       </c>
-      <c r="M3" s="7">
+      <c r="M3" s="17">
         <v>1.2635179008427135</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
-      <c r="A4" s="14">
-        <v>6</v>
-      </c>
-      <c r="B4" s="17">
+    <row r="4" spans="1:13" ht="16.5" thickBot="1">
+      <c r="A4" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="19">
         <v>30.082885556435102</v>
       </c>
-      <c r="C4" s="18">
+      <c r="C4" s="20">
         <v>30.082885556435102</v>
       </c>
-      <c r="D4" s="18">
+      <c r="D4" s="20">
         <v>30.082885556435102</v>
       </c>
-      <c r="E4" s="18">
+      <c r="E4" s="20">
         <v>30.082885556435102</v>
       </c>
-      <c r="F4" s="18">
+      <c r="F4" s="20">
         <v>30.082885556435102</v>
       </c>
-      <c r="G4" s="14">
+      <c r="G4" s="21">
         <v>30.082885556435102</v>
       </c>
-      <c r="H4" s="1">
+      <c r="H4" s="20">
         <v>1.1957801671921953</v>
       </c>
-      <c r="I4" s="1">
+      <c r="I4" s="20">
         <v>1</v>
       </c>
-      <c r="J4" s="1">
+      <c r="J4" s="20">
         <v>1.0259201119307249</v>
       </c>
-      <c r="K4" s="1">
+      <c r="K4" s="20">
         <v>1.1774432680194868</v>
       </c>
-      <c r="L4" s="1">
+      <c r="L4" s="20">
         <v>1.6627120170231653</v>
       </c>
-      <c r="M4" s="1">
+      <c r="M4" s="22">
         <v>1.264288441493016</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B5" s="1">
         <f>STDEV(B3:B4)</f>
@@ -1003,19 +1007,57 @@
       </c>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
+      <c r="A6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="1">
+        <f>GEOMEAN(B3:B4)</f>
+        <v>30.411377031971018</v>
+      </c>
+      <c r="C6" s="1">
+        <f t="shared" ref="C6:M6" si="1">GEOMEAN(C3:C4)</f>
+        <v>30.411377031971018</v>
+      </c>
+      <c r="D6" s="1">
+        <f t="shared" si="1"/>
+        <v>30.411377031971018</v>
+      </c>
+      <c r="E6" s="1">
+        <f t="shared" si="1"/>
+        <v>30.411377031971018</v>
+      </c>
+      <c r="F6" s="1">
+        <f t="shared" si="1"/>
+        <v>30.411377031971018</v>
+      </c>
+      <c r="G6" s="1">
+        <f t="shared" si="1"/>
+        <v>30.411377031971018</v>
+      </c>
+      <c r="H6" s="1">
+        <f t="shared" si="1"/>
+        <v>1.2007605850313039</v>
+      </c>
+      <c r="I6" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J6" s="1">
+        <f t="shared" si="1"/>
+        <v>1.0639597058646917</v>
+      </c>
+      <c r="K6" s="1">
+        <f t="shared" si="1"/>
+        <v>1.1566680247444241</v>
+      </c>
+      <c r="L6" s="1">
+        <f t="shared" si="1"/>
+        <v>1.7201254946685776</v>
+      </c>
+      <c r="M6" s="1">
+        <f t="shared" si="1"/>
+        <v>1.2639031124476914</v>
+      </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="1"/>

--- a/algorithm/fair_comparison/fc_comparison_summary.xlsx
+++ b/algorithm/fair_comparison/fc_comparison_summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Note_Database\Subject\MS Monographic Study\MS Phase6\MCU\SMRBS-ESP32\algorithm\fair_comparison\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29661C6E-23F6-4834-949E-3206C3D30334}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B17377C-B48E-4234-9E34-20027351B81A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
   <si>
     <t>max</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -81,6 +81,38 @@
   </si>
   <si>
     <t>std of 5-6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fc7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fc8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fc9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fc10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>std of  7-10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mean of 7-10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>std</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mean</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -252,7 +284,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -385,6 +417,114 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -446,7 +586,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -460,24 +600,6 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -500,6 +622,59 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="20">
     <cellStyle name="Accent" xfId="8" xr:uid="{CFC18EBB-F7DA-4AAA-9AEF-1223110A766F}"/>
@@ -799,41 +974,44 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M21"/>
+  <dimension ref="A1:O21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="14.5703125" customWidth="1"/>
     <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:15">
+      <c r="A1" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="7" t="s">
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="9"/>
-    </row>
-    <row r="2" spans="1:13" ht="16.5" thickBot="1">
-      <c r="A2" s="11"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
+      <c r="L1" s="39"/>
+      <c r="M1" s="39"/>
+      <c r="N1" s="39"/>
+      <c r="O1" s="41"/>
+    </row>
+    <row r="2" spans="1:15" ht="16.5" thickBot="1">
+      <c r="A2" s="24"/>
       <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
@@ -852,7 +1030,7 @@
       <c r="G2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="33" t="s">
         <v>2</v>
       </c>
       <c r="I2" s="2" t="s">
@@ -870,286 +1048,552 @@
       <c r="M2" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="12" t="s">
+      <c r="N2" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="O2" s="16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="13">
+      <c r="B3" s="7">
         <v>30.7434554855346</v>
       </c>
-      <c r="C3" s="14">
+      <c r="C3" s="8">
         <v>30.7434554855346</v>
       </c>
-      <c r="D3" s="14">
+      <c r="D3" s="8">
         <v>30.7434554855346</v>
       </c>
-      <c r="E3" s="14">
+      <c r="E3" s="8">
         <v>30.7434554855346</v>
       </c>
-      <c r="F3" s="14">
+      <c r="F3" s="8">
         <v>30.7434554855346</v>
       </c>
-      <c r="G3" s="15">
+      <c r="G3" s="9">
         <v>30.7434554855346</v>
       </c>
-      <c r="H3" s="16">
+      <c r="H3" s="34">
         <v>1.2057617462834016</v>
       </c>
-      <c r="I3" s="16">
+      <c r="I3" s="10">
         <v>1</v>
       </c>
-      <c r="J3" s="16">
+      <c r="J3" s="10">
         <v>1.1034097514408803</v>
       </c>
-      <c r="K3" s="16">
+      <c r="K3" s="10">
         <v>1.1362593475238467</v>
       </c>
-      <c r="L3" s="16">
+      <c r="L3" s="10">
         <v>1.7795214607916048</v>
       </c>
-      <c r="M3" s="17">
+      <c r="M3" s="11">
         <v>1.2635179008427135</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" ht="16.5" thickBot="1">
-      <c r="A4" s="18" t="s">
+      <c r="N3" s="35">
+        <f>STDEV(H3:M3)</f>
+        <v>0.27547639287268622</v>
+      </c>
+      <c r="O3" s="36">
+        <f>GEOMEAN(H3:M3)</f>
+        <v>1.2261964925853031</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="16.5" thickBot="1">
+      <c r="A4" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="19">
+      <c r="B4" s="13">
         <v>30.082885556435102</v>
       </c>
-      <c r="C4" s="20">
+      <c r="C4" s="14">
         <v>30.082885556435102</v>
       </c>
-      <c r="D4" s="20">
+      <c r="D4" s="14">
         <v>30.082885556435102</v>
       </c>
-      <c r="E4" s="20">
+      <c r="E4" s="14">
         <v>30.082885556435102</v>
       </c>
-      <c r="F4" s="20">
+      <c r="F4" s="14">
         <v>30.082885556435102</v>
       </c>
-      <c r="G4" s="21">
+      <c r="G4" s="15">
         <v>30.082885556435102</v>
       </c>
       <c r="H4" s="20">
         <v>1.1957801671921953</v>
       </c>
-      <c r="I4" s="20">
+      <c r="I4" s="14">
         <v>1</v>
       </c>
-      <c r="J4" s="20">
+      <c r="J4" s="14">
         <v>1.0259201119307249</v>
       </c>
-      <c r="K4" s="20">
+      <c r="K4" s="14">
         <v>1.1774432680194868</v>
       </c>
-      <c r="L4" s="20">
+      <c r="L4" s="14">
         <v>1.6627120170231653</v>
       </c>
-      <c r="M4" s="22">
+      <c r="M4" s="16">
         <v>1.264288441493016</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
-      <c r="A5" s="1" t="s">
+      <c r="N4" s="33">
+        <f>STDEV(H4:M4)</f>
+        <v>0.23933816381433767</v>
+      </c>
+      <c r="O4" s="16">
+        <f>GEOMEAN(H4:M4)</f>
+        <v>1.2033575320545387</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="21">
         <f>STDEV(B3:B4)</f>
         <v>0.46709347631417225</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="18">
         <f t="shared" ref="C5:M5" si="0">STDEV(C3:C4)</f>
         <v>0.46709347631417225</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="18">
         <f t="shared" si="0"/>
         <v>0.46709347631417225</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="18">
         <f t="shared" si="0"/>
         <v>0.46709347631417225</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="18">
         <f t="shared" si="0"/>
         <v>0.46709347631417225</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G5" s="22">
         <f t="shared" si="0"/>
         <v>0.46709347631417225</v>
       </c>
-      <c r="H5" s="1">
+      <c r="H5" s="17">
         <f t="shared" si="0"/>
         <v>7.0580422623418588E-3</v>
       </c>
-      <c r="I5" s="1">
+      <c r="I5" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J5" s="1">
+      <c r="J5" s="18">
         <f t="shared" si="0"/>
         <v>5.4793449569331916E-2</v>
       </c>
-      <c r="K5" s="1">
+      <c r="K5" s="18">
         <f t="shared" si="0"/>
         <v>2.9121429458314772E-2</v>
       </c>
-      <c r="L5" s="1">
+      <c r="L5" s="18">
         <f t="shared" si="0"/>
         <v>8.2596749795292274E-2</v>
       </c>
-      <c r="M5" s="1">
+      <c r="M5" s="19">
         <f t="shared" si="0"/>
         <v>5.44854519008765E-4</v>
       </c>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="A6" s="1" t="s">
+      <c r="N5" s="37">
+        <f t="shared" ref="N5:N12" si="1">STDEV(H5:M5)</f>
+        <v>3.3675127325979708E-2</v>
+      </c>
+      <c r="O5" s="36" t="e">
+        <f>GEOMEAN(H5:M5)</f>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="16.5" thickBot="1">
+      <c r="A6" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="13">
         <f>GEOMEAN(B3:B4)</f>
         <v>30.411377031971018</v>
       </c>
-      <c r="C6" s="1">
-        <f t="shared" ref="C6:M6" si="1">GEOMEAN(C3:C4)</f>
+      <c r="C6" s="14">
+        <f t="shared" ref="C6:M6" si="2">GEOMEAN(C3:C4)</f>
         <v>30.411377031971018</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="14">
+        <f t="shared" si="2"/>
+        <v>30.411377031971018</v>
+      </c>
+      <c r="E6" s="14">
+        <f t="shared" si="2"/>
+        <v>30.411377031971018</v>
+      </c>
+      <c r="F6" s="14">
+        <f t="shared" si="2"/>
+        <v>30.411377031971018</v>
+      </c>
+      <c r="G6" s="15">
+        <f t="shared" si="2"/>
+        <v>30.411377031971018</v>
+      </c>
+      <c r="H6" s="20">
+        <f t="shared" si="2"/>
+        <v>1.2007605850313039</v>
+      </c>
+      <c r="I6" s="14">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="J6" s="14">
+        <f t="shared" si="2"/>
+        <v>1.0639597058646917</v>
+      </c>
+      <c r="K6" s="14">
+        <f t="shared" si="2"/>
+        <v>1.1566680247444241</v>
+      </c>
+      <c r="L6" s="14">
+        <f t="shared" si="2"/>
+        <v>1.7201254946685776</v>
+      </c>
+      <c r="M6" s="16">
+        <f t="shared" si="2"/>
+        <v>1.2639031124476914</v>
+      </c>
+      <c r="N6" s="33">
         <f t="shared" si="1"/>
-        <v>30.411377031971018</v>
-      </c>
-      <c r="E6" s="1">
+        <v>0.25611194928123027</v>
+      </c>
+      <c r="O6" s="16">
+        <f>GEOMEAN(H6:M6)</f>
+        <v>1.2147233368678572</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="21">
+        <v>30.310056267599499</v>
+      </c>
+      <c r="C7" s="18">
+        <v>30.310056267599499</v>
+      </c>
+      <c r="D7" s="18">
+        <v>30.310056267599499</v>
+      </c>
+      <c r="E7" s="18">
+        <v>30.310056267599499</v>
+      </c>
+      <c r="F7" s="18">
+        <v>30.310056267599499</v>
+      </c>
+      <c r="G7" s="22">
+        <v>30.310056267599499</v>
+      </c>
+      <c r="H7" s="17">
+        <v>1.1432228790000001</v>
+      </c>
+      <c r="I7" s="18">
+        <v>1.161246389</v>
+      </c>
+      <c r="J7" s="18">
+        <v>1.1708298779999999</v>
+      </c>
+      <c r="K7" s="18">
+        <v>1.0241696979999999</v>
+      </c>
+      <c r="L7" s="18">
+        <v>1.01161346</v>
+      </c>
+      <c r="M7" s="19">
+        <v>1</v>
+      </c>
+      <c r="N7" s="37">
         <f t="shared" si="1"/>
-        <v>30.411377031971018</v>
-      </c>
-      <c r="F6" s="1">
+        <v>8.1093647218929449E-2</v>
+      </c>
+      <c r="O7" s="36">
+        <f>GEOMEAN(H7:M7)</f>
+        <v>1.0826529584088818</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="31">
+        <v>29.9904888695377</v>
+      </c>
+      <c r="C8" s="27">
+        <v>29.9904888695377</v>
+      </c>
+      <c r="D8" s="27">
+        <v>29.9904888695377</v>
+      </c>
+      <c r="E8" s="27">
+        <v>29.9904888695377</v>
+      </c>
+      <c r="F8" s="27">
+        <v>29.9904888695377</v>
+      </c>
+      <c r="G8" s="25">
+        <v>29.9904888695377</v>
+      </c>
+      <c r="H8" s="26">
+        <v>1.1325549370000001</v>
+      </c>
+      <c r="I8" s="28">
+        <v>1.1017360919999999</v>
+      </c>
+      <c r="J8" s="28">
+        <v>1.0337392009999999</v>
+      </c>
+      <c r="K8" s="28">
+        <v>1.0337951839999999</v>
+      </c>
+      <c r="L8" s="28">
+        <v>1</v>
+      </c>
+      <c r="M8" s="29">
+        <v>1.0174520300000001</v>
+      </c>
+      <c r="N8" s="37">
         <f t="shared" si="1"/>
-        <v>30.411377031971018</v>
-      </c>
-      <c r="G6" s="1">
+        <v>5.1993046062226572E-2</v>
+      </c>
+      <c r="O8" s="29">
+        <f>GEOMEAN(H8:M8)</f>
+        <v>1.0521622467358105</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="32">
+        <v>30.0032610794362</v>
+      </c>
+      <c r="C9" s="28">
+        <v>30.0032610794362</v>
+      </c>
+      <c r="D9" s="28">
+        <v>30.0032610794362</v>
+      </c>
+      <c r="E9" s="28">
+        <v>30.0032610794362</v>
+      </c>
+      <c r="F9" s="28">
+        <v>30.0032610794362</v>
+      </c>
+      <c r="G9" s="30">
+        <v>30.0032610794362</v>
+      </c>
+      <c r="H9" s="26">
+        <v>1.119960284</v>
+      </c>
+      <c r="I9" s="28">
+        <v>1</v>
+      </c>
+      <c r="J9" s="28">
+        <v>1.1338713920000001</v>
+      </c>
+      <c r="K9" s="28">
+        <v>1.0301607020000001</v>
+      </c>
+      <c r="L9" s="28">
+        <v>1.0075798</v>
+      </c>
+      <c r="M9" s="29">
+        <v>1.0622019519999999</v>
+      </c>
+      <c r="N9" s="37">
         <f t="shared" si="1"/>
-        <v>30.411377031971018</v>
-      </c>
-      <c r="H6" s="1">
+        <v>5.707690887966041E-2</v>
+      </c>
+      <c r="O9" s="29">
+        <f>GEOMEAN(H9:M9)</f>
+        <v>1.0576930670777485</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="16.5" thickBot="1">
+      <c r="A10" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="13">
+        <v>29.5397540562453</v>
+      </c>
+      <c r="C10" s="14">
+        <v>29.5397540562453</v>
+      </c>
+      <c r="D10" s="14">
+        <v>29.5397540562453</v>
+      </c>
+      <c r="E10" s="14">
+        <v>29.5397540562453</v>
+      </c>
+      <c r="F10" s="14">
+        <v>29.5397540562453</v>
+      </c>
+      <c r="G10" s="15">
+        <v>29.5397540562453</v>
+      </c>
+      <c r="H10" s="20">
+        <v>1.1204237849876169</v>
+      </c>
+      <c r="I10" s="14">
+        <v>1.0067271968654703</v>
+      </c>
+      <c r="J10" s="14">
+        <v>1.135607874637816</v>
+      </c>
+      <c r="K10" s="14">
+        <v>1.0193762192152824</v>
+      </c>
+      <c r="L10" s="14">
+        <v>1</v>
+      </c>
+      <c r="M10" s="16">
+        <v>1.0866971756733292</v>
+      </c>
+      <c r="N10" s="33">
         <f t="shared" si="1"/>
-        <v>1.2007605850313039</v>
-      </c>
-      <c r="I6" s="1">
+        <v>6.025878419515842E-2</v>
+      </c>
+      <c r="O10" s="16">
+        <f>GEOMEAN(H10:M10)</f>
+        <v>1.0600530308570455</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="A11" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="21">
+        <f>STDEV(B7:B10)</f>
+        <v>0.31725067218316322</v>
+      </c>
+      <c r="C11" s="18">
+        <f t="shared" ref="C11:M11" si="3">STDEV(C7:C10)</f>
+        <v>0.31725067218316322</v>
+      </c>
+      <c r="D11" s="18">
+        <f t="shared" si="3"/>
+        <v>0.31725067218316322</v>
+      </c>
+      <c r="E11" s="18">
+        <f t="shared" si="3"/>
+        <v>0.31725067218316322</v>
+      </c>
+      <c r="F11" s="18">
+        <f t="shared" si="3"/>
+        <v>0.31725067218316322</v>
+      </c>
+      <c r="G11" s="22">
+        <f t="shared" si="3"/>
+        <v>0.31725067218316322</v>
+      </c>
+      <c r="H11" s="17">
+        <f t="shared" si="3"/>
+        <v>1.1108393849316389E-2</v>
+      </c>
+      <c r="I11" s="18">
+        <f t="shared" si="3"/>
+        <v>7.7910328744150117E-2</v>
+      </c>
+      <c r="J11" s="18">
+        <f t="shared" si="3"/>
+        <v>5.9024762207424461E-2</v>
+      </c>
+      <c r="K11" s="18">
+        <f t="shared" si="3"/>
+        <v>6.383185087457441E-3</v>
+      </c>
+      <c r="L11" s="18">
+        <f t="shared" si="3"/>
+        <v>5.7801532233064459E-3</v>
+      </c>
+      <c r="M11" s="19">
+        <f t="shared" si="3"/>
+        <v>3.9882659300541037E-2</v>
+      </c>
+      <c r="N11" s="37">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="J6" s="1">
+        <v>3.0559733419238708E-2</v>
+      </c>
+      <c r="O11" s="36">
+        <f>GEOMEAN(H11:M11)</f>
+        <v>2.0543459248205675E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="16.5" thickBot="1">
+      <c r="A12" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="13">
+        <f>GEOMEAN(B7:B10)</f>
+        <v>29.959627271998848</v>
+      </c>
+      <c r="C12" s="14">
+        <f t="shared" ref="C12:M12" si="4">GEOMEAN(C7:C10)</f>
+        <v>29.959627271998848</v>
+      </c>
+      <c r="D12" s="14">
+        <f t="shared" si="4"/>
+        <v>29.959627271998848</v>
+      </c>
+      <c r="E12" s="14">
+        <f t="shared" si="4"/>
+        <v>29.959627271998848</v>
+      </c>
+      <c r="F12" s="14">
+        <f t="shared" si="4"/>
+        <v>29.959627271998848</v>
+      </c>
+      <c r="G12" s="15">
+        <f t="shared" si="4"/>
+        <v>29.959627271998848</v>
+      </c>
+      <c r="H12" s="20">
+        <f t="shared" si="4"/>
+        <v>1.1289995833233646</v>
+      </c>
+      <c r="I12" s="14">
+        <f t="shared" si="4"/>
+        <v>1.0653159727952195</v>
+      </c>
+      <c r="J12" s="14">
+        <f t="shared" si="4"/>
+        <v>1.117311435978716</v>
+      </c>
+      <c r="K12" s="14">
+        <f t="shared" si="4"/>
+        <v>1.0268605651772165</v>
+      </c>
+      <c r="L12" s="14">
+        <f t="shared" si="4"/>
+        <v>1.0047858555575333</v>
+      </c>
+      <c r="M12" s="16">
+        <f t="shared" si="4"/>
+        <v>1.0410159749228809</v>
+      </c>
+      <c r="N12" s="33">
         <f t="shared" si="1"/>
-        <v>1.0639597058646917</v>
-      </c>
-      <c r="K6" s="1">
-        <f t="shared" si="1"/>
-        <v>1.1566680247444241</v>
-      </c>
-      <c r="L6" s="1">
-        <f t="shared" si="1"/>
-        <v>1.7201254946685776</v>
-      </c>
-      <c r="M6" s="1">
-        <f t="shared" si="1"/>
-        <v>1.2639031124476914</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-    </row>
-    <row r="8" spans="1:13">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-    </row>
-    <row r="9" spans="1:13">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-    </row>
-    <row r="10" spans="1:13">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-    </row>
-    <row r="11" spans="1:13">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-    </row>
-    <row r="12" spans="1:13">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-    </row>
-    <row r="13" spans="1:13">
+        <v>4.9965369597213607E-2</v>
+      </c>
+      <c r="O12" s="16">
+        <f>GEOMEAN(H12:M12)</f>
+        <v>1.0630772096899939</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -1164,7 +1608,7 @@
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:15">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -1179,7 +1623,7 @@
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:15">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -1194,7 +1638,7 @@
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:15">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -1286,12 +1730,15 @@
     </row>
   </sheetData>
   <mergeCells count="3">
+    <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:G1"/>
-    <mergeCell ref="H1:M1"/>
-    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="H1:O1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="N3:O4 N7:O10" formulaRange="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>